--- a/data/data collection template.xlsx
+++ b/data/data collection template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashafeferholtz/Dropbox (Personal)/SCBD consultancy position/RM CBD Project/GEF/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilymickus/projectgit/CBD_research/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4119BE54-22E3-6D4C-8C3A-40CA64371110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3874556-CA81-B242-BCC3-919E90BE94E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="860" windowWidth="26180" windowHeight="16120" activeTab="4" xr2:uid="{03AAA7A3-3444-445B-B629-8381954AF99A}"/>
+    <workbookView xWindow="180" yWindow="740" windowWidth="26180" windowHeight="16120" activeTab="2" xr2:uid="{03AAA7A3-3444-445B-B629-8381954AF99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Country analysis - Africa" sheetId="5" r:id="rId1"/>
@@ -27,10 +27,18 @@
     <definedName name="table3">'gef-6'!$B$4:$C$109</definedName>
     <definedName name="table4">'star allocation gef7 and gef6'!$A$3:$O$146</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -255,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="358">
   <si>
     <t>Previous questionnaire</t>
   </si>
@@ -1029,9 +1037,6 @@
     <t>Countries</t>
   </si>
   <si>
-    <t>sum_grant</t>
-  </si>
-  <si>
     <t>Congo DR</t>
   </si>
   <si>
@@ -1045,9 +1050,6 @@
   </si>
   <si>
     <t>GEF-7 bio so far</t>
-  </si>
-  <si>
-    <t>Showing 1 to 12 of 60 entries</t>
   </si>
   <si>
     <t>Antigua And Barbuda</t>
@@ -2094,38 +2096,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2190,35 +2160,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2552,7 +2554,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="72" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
@@ -2567,60 +2569,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="32">
-      <c r="B1" s="125"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="116" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="121"/>
-      <c r="J1" s="120" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="118" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="117" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="116"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="2:16" ht="48">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="97" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="100" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -2629,13 +2631,13 @@
       <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="110" t="s">
-        <v>355</v>
-      </c>
-      <c r="O2" s="109" t="s">
+      <c r="N2" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="O2" s="97" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -2643,1390 +2645,1390 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="32">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="93">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="81">
         <v>2000000</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="108">
+      <c r="F3" s="80"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="96">
         <v>2015</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J3" s="90">
+        <v>352</v>
+      </c>
+      <c r="J3" s="78">
         <v>2019</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="87"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="144">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="87">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="75">
         <v>2016</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J4" s="90">
+        <v>351</v>
+      </c>
+      <c r="J4" s="78">
         <v>2019</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="87"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="2:16" ht="32">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="87">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="75">
         <v>2016</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J5" s="90">
+        <v>349</v>
+      </c>
+      <c r="J5" s="78">
         <v>2019</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="87"/>
+        <v>273</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="208">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="93">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="81">
         <v>10400000</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="94">
         <v>2015</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="79">
         <v>3838000</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="75">
         <v>2016</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="J6" s="96">
+        <v>348</v>
+      </c>
+      <c r="J6" s="84">
         <v>2014</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="107"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="O6" s="75"/>
+      <c r="P6" s="95"/>
     </row>
     <row r="7" spans="2:16" ht="48">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="106">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="94">
         <v>2015</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="79">
         <v>74719000</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="75">
         <v>2011</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="96">
+        <v>345</v>
+      </c>
+      <c r="J7" s="84">
         <v>2014</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="O7" s="87"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="75"/>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="17">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="87">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="75">
         <v>2013</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J8" s="90">
+        <v>342</v>
+      </c>
+      <c r="J8" s="78">
         <v>2018</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="88" t="s">
-        <v>343</v>
-      </c>
-      <c r="O8" s="87"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="O8" s="75"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16" ht="17">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="93">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="81">
         <v>11970000</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="87">
+      <c r="F9" s="80"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="75">
         <v>2012</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="90">
+        <v>273</v>
+      </c>
+      <c r="J9" s="78">
         <v>2019</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="87"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="75"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="34">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="87">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="75">
         <v>2000</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="105">
+      <c r="J10" s="93">
         <v>2017</v>
       </c>
-      <c r="K10" s="104" t="s">
-        <v>342</v>
+      <c r="K10" s="92" t="s">
+        <v>340</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="87"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" ht="17">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="87">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="75">
         <v>2016</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J11" s="90">
+        <v>339</v>
+      </c>
+      <c r="J11" s="78">
         <v>2019</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="87"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="17">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="87">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="75">
         <v>2016</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J12" s="90">
+        <v>338</v>
+      </c>
+      <c r="J12" s="78">
         <v>2019</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="87"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:16" ht="17">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="87">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="75">
         <v>2015</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J13" s="90">
+        <v>273</v>
+      </c>
+      <c r="J13" s="78">
         <v>2017</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="87"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="75"/>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="17">
-      <c r="B14" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="87">
+      <c r="B14" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="75">
         <v>2016</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J14" s="90">
+        <v>336</v>
+      </c>
+      <c r="J14" s="78">
         <v>2018</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="O14" s="87"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="O14" s="75"/>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:16" ht="34">
-      <c r="B15" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="93">
+      <c r="B15" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="81">
         <v>213185000</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="87">
+      <c r="F15" s="80"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="75">
         <v>2016</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J15" s="90">
+        <v>273</v>
+      </c>
+      <c r="J15" s="78">
         <v>2019</v>
       </c>
-      <c r="K15" s="103" t="s">
-        <v>335</v>
+      <c r="K15" s="91" t="s">
+        <v>333</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="O15" s="87"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="O15" s="75"/>
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="112">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="87">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="75">
         <v>1999</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J16" s="90">
+        <v>273</v>
+      </c>
+      <c r="J16" s="78">
         <v>2019</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="87"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16" ht="48">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="93">
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="81">
         <v>236402750</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="87">
+      <c r="F17" s="80"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="75">
         <v>2016</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J17" s="96"/>
+        <v>330</v>
+      </c>
+      <c r="J17" s="84"/>
       <c r="K17" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="O17" s="87"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="O17" s="75"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="17">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="87" t="s">
-        <v>275</v>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="75" t="s">
+        <v>273</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J18" s="96">
+        <v>273</v>
+      </c>
+      <c r="J18" s="84">
         <v>2016</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="87"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="75"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" ht="17">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="93">
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="81">
         <v>90720000</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="87">
+      <c r="F19" s="80"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="75">
         <v>2016</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J19" s="90">
+        <v>327</v>
+      </c>
+      <c r="J19" s="78">
         <v>2019</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="O19" s="87"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" s="75"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="17">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="93">
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="81">
         <v>12900000</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="87">
+      <c r="F20" s="80"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="75">
         <v>2015</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J20" s="90">
+        <v>325</v>
+      </c>
+      <c r="J20" s="78">
         <v>2019</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="O20" s="87"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="O20" s="75"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="2:16" ht="32">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="87">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="75">
         <v>2014</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J21" s="96">
+        <v>323</v>
+      </c>
+      <c r="J21" s="84">
         <v>2014</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="87"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="75"/>
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="17">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="93">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="81">
         <v>2000000</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="87" t="s">
-        <v>275</v>
+      <c r="F22" s="80"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="75" t="s">
+        <v>273</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J22" s="90">
+        <v>322</v>
+      </c>
+      <c r="J22" s="78">
         <v>2018</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="88" t="s">
-        <v>323</v>
-      </c>
-      <c r="O22" s="87"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="O22" s="75"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" ht="17">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="97">
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="85">
         <v>2017</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J23" s="96">
+        <v>320</v>
+      </c>
+      <c r="J23" s="84">
         <v>2015</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="87"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="75"/>
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="160">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="87">
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="75">
         <v>2015</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J24" s="90">
+        <v>319</v>
+      </c>
+      <c r="J24" s="78">
         <v>2018</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="87"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="75"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="2:16" ht="96">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="93">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81">
         <v>2450000</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="87">
+      <c r="F25" s="80"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="75">
         <v>2016</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J25" s="96">
+        <v>317</v>
+      </c>
+      <c r="J25" s="84">
         <v>2014</v>
       </c>
-      <c r="K25" s="103" t="s">
-        <v>275</v>
+      <c r="K25" s="91" t="s">
+        <v>273</v>
       </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="88" t="s">
-        <v>318</v>
-      </c>
-      <c r="O25" s="87"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="O25" s="75"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="112">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="93">
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="81">
         <v>30400000</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="87">
+      <c r="F26" s="80"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="75">
         <v>2015</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J26" s="90">
+        <v>315</v>
+      </c>
+      <c r="J26" s="78">
         <v>2019</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="87"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="75"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="2:16" ht="96">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="87">
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="75">
         <v>2014</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J27" s="90">
+        <v>313</v>
+      </c>
+      <c r="J27" s="78">
         <v>2018</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="87"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="75"/>
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="64">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="87">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="75">
         <v>2014</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J28" s="96">
+        <v>311</v>
+      </c>
+      <c r="J28" s="84">
         <v>2014</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="87"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="75"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="2:16" ht="17">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="87">
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="75">
         <v>2015</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J29" s="96">
+        <v>309</v>
+      </c>
+      <c r="J29" s="84">
         <v>2015</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="87"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="75"/>
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="48">
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="93">
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="81">
         <v>1500000</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="87">
+      <c r="F30" s="80"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="75">
         <v>2015</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J30" s="96">
+        <v>308</v>
+      </c>
+      <c r="J30" s="84">
         <v>2013</v>
       </c>
-      <c r="K30" s="102" t="s">
-        <v>309</v>
+      <c r="K30" s="90" t="s">
+        <v>307</v>
       </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="O30" s="87"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="O30" s="75"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="2:16" ht="17">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="87">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="75">
         <v>2016</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J31" s="96">
+        <v>305</v>
+      </c>
+      <c r="J31" s="84">
         <v>2014</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="87"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="75"/>
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="34">
-      <c r="B32" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="87">
+      <c r="B32" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="75">
         <v>2016</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J32" s="90">
+        <v>303</v>
+      </c>
+      <c r="J32" s="78">
         <v>2019</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="2:16" ht="48">
+      <c r="B33" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="81">
+        <v>21980000</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="75">
+        <v>2015</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" s="78">
+        <v>2018</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="2:16" ht="64">
+      <c r="B34" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="81">
+        <v>4700000</v>
+      </c>
+      <c r="F34" s="80"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="75">
+        <v>2011</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" s="75"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="2:16" ht="48">
+      <c r="B35" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="81">
+        <v>7800000</v>
+      </c>
+      <c r="F35" s="80"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="75">
+        <v>2014</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="84">
+        <v>2014</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="2:16" ht="17">
+      <c r="B36" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="75">
+        <v>2017</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="78">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="2:16" ht="17">
+      <c r="B37" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="75">
+        <v>2015</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="2:16" ht="32">
+      <c r="B38" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="75">
+        <v>2015</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="89">
+        <v>2016</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" s="75"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="2:16" ht="80">
+      <c r="B39" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="81">
+        <v>27000000</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="75">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" s="75"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="2:16" ht="32">
+      <c r="B40" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="81">
+        <v>15850000</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="84">
+        <v>2015</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" s="88">
+        <v>2018</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" s="75"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="2:16" ht="17">
+      <c r="B41" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="75">
+        <v>2016</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="84">
+        <v>2014</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" s="75"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="2:16" ht="112">
+      <c r="B42" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="75">
+        <v>2018</v>
+      </c>
+      <c r="I42" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="J42" s="84">
+        <v>2014</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="2:16" ht="17">
+      <c r="B43" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="75">
+        <v>2014</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" s="84">
+        <v>2014</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="2:16" ht="32">
+      <c r="B44" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="75">
+        <v>2017</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="O44" s="75"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="2:16" ht="17">
+      <c r="B45" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="85">
+        <v>2019</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J45" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="2:16" ht="144">
+      <c r="B46" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="81">
+        <v>21900000</v>
+      </c>
+      <c r="F46" s="80"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="75">
+        <v>2016</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="O46" s="75"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="2:16" ht="34">
+      <c r="B47" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="75">
+        <v>2015</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" s="84">
+        <v>2014</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="2:16" ht="80">
+      <c r="B48" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="75">
+        <v>2018</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J48" s="78">
+        <v>2019</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="2:16" ht="48">
-      <c r="B33" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="93">
-        <v>21980000</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="87">
+      <c r="L48" s="6"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="2:16" ht="17">
+      <c r="B49" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="75">
         <v>2015</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J33" s="90">
-        <v>2018</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="2:16" ht="64">
-      <c r="B34" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="93">
-        <v>4700000</v>
-      </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="87">
-        <v>2011</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J34" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="88" t="s">
-        <v>301</v>
-      </c>
-      <c r="O34" s="87"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="2:16" ht="48">
-      <c r="B35" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="93">
-        <v>7800000</v>
-      </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="87">
+      <c r="I49" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J49" s="84">
+        <v>2015</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="2:16" ht="80">
+      <c r="B50" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="81">
+        <v>17900000</v>
+      </c>
+      <c r="F50" s="80"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="75">
         <v>2014</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J35" s="96">
-        <v>2014</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="2:16" ht="17">
-      <c r="B36" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="87">
-        <v>2017</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J36" s="90">
-        <v>2020</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="2:16" ht="17">
-      <c r="B37" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="87">
-        <v>2015</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J37" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="2:16" ht="32">
-      <c r="B38" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="87">
-        <v>2015</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J38" s="101">
-        <v>2016</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="O38" s="87"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="2:16" ht="80">
-      <c r="B39" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="93">
-        <v>27000000</v>
-      </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="87">
-        <v>2018</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J39" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="O39" s="87"/>
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="2:16" ht="32">
-      <c r="B40" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="93">
-        <v>15850000</v>
-      </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="96">
-        <v>2015</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J40" s="100">
-        <v>2018</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="99" t="s">
-        <v>291</v>
-      </c>
-      <c r="O40" s="87"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="2:16" ht="17">
-      <c r="B41" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="87">
-        <v>2016</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J41" s="96">
-        <v>2014</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="O41" s="87"/>
-      <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="2:16" ht="112">
-      <c r="B42" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="87">
-        <v>2018</v>
-      </c>
-      <c r="I42" s="98" t="s">
-        <v>286</v>
-      </c>
-      <c r="J42" s="96">
-        <v>2014</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="2:16" ht="17">
-      <c r="B43" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="87">
-        <v>2014</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J43" s="96">
-        <v>2014</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="6"/>
-    </row>
-    <row r="44" spans="2:16" ht="32">
-      <c r="B44" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="87">
-        <v>2017</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J44" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="O44" s="87"/>
-      <c r="P44" s="6"/>
-    </row>
-    <row r="45" spans="2:16" ht="17">
-      <c r="B45" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="97">
-        <v>2019</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J45" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="2:16" ht="144">
-      <c r="B46" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="93">
-        <v>21900000</v>
-      </c>
-      <c r="F46" s="92"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="87">
-        <v>2016</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J46" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="O46" s="87"/>
-      <c r="P46" s="6"/>
-    </row>
-    <row r="47" spans="2:16" ht="34">
-      <c r="B47" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="87">
-        <v>2015</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J47" s="96">
-        <v>2014</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="2:16" ht="80">
-      <c r="B48" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="87">
-        <v>2018</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J48" s="90">
-        <v>2019</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="6"/>
-    </row>
-    <row r="49" spans="2:16" ht="17">
-      <c r="B49" s="95" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="87">
-        <v>2015</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J49" s="96">
-        <v>2015</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="2:16" ht="80">
-      <c r="B50" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="93">
-        <v>17900000</v>
-      </c>
-      <c r="F50" s="92"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="87">
-        <v>2014</v>
-      </c>
       <c r="I50" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="J50" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L50" s="6"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="87"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="75"/>
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="86">
+      <c r="B51" s="74">
         <f>COUNTA(B3:B50)</f>
         <v>48</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85">
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73">
         <f>COUNTA(H3:H50)</f>
         <v>48</v>
       </c>
-      <c r="J51" s="85">
+      <c r="J51" s="73">
         <f>COUNTA(J3:J50)</f>
         <v>47</v>
       </c>
@@ -4074,30 +4076,30 @@
   <sheetData>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="36"/>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="75" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="80"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="48">
       <c r="A3" s="6" t="s">
@@ -4393,10 +4395,10 @@
         <v>18</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16">
@@ -6259,8 +6261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9505D5A5-9D15-AB41-850B-A2C039531142}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6273,17 +6275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="81"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="81"/>
+      <c r="B2" s="123"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="54" t="s">
         <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6304,7 +6306,7 @@
         <f>IF(C4=D4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="54">
@@ -6325,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="52"/>
-      <c r="I5" s="82"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="54">
@@ -6367,9 +6369,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="52">
-        <v>1</v>
-      </c>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="54">
@@ -6389,9 +6389,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="52">
-        <v>2</v>
-      </c>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="54">
@@ -6411,9 +6409,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="52">
-        <v>3</v>
-      </c>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="54">
@@ -6433,9 +6429,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="52">
-        <v>4</v>
-      </c>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="54">
@@ -6455,9 +6449,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="52">
-        <v>5</v>
-      </c>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="54">
@@ -6477,9 +6469,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="52">
-        <v>6</v>
-      </c>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="54">
@@ -6499,9 +6489,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="52">
-        <v>7</v>
-      </c>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="54">
@@ -6521,9 +6509,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="52">
-        <v>8</v>
-      </c>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="54">
@@ -6543,9 +6529,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="52">
-        <v>9</v>
-      </c>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="54">
@@ -6565,9 +6549,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="52">
-        <v>10</v>
-      </c>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="54">
@@ -6587,9 +6569,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17" s="52">
-        <v>11</v>
-      </c>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="54">
@@ -6609,9 +6589,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18" s="52">
-        <v>12</v>
-      </c>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="54">
@@ -6631,9 +6609,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19" s="52">
-        <v>13</v>
-      </c>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="54">
@@ -6653,9 +6629,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H20" s="52">
-        <v>14</v>
-      </c>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="54">
@@ -6675,9 +6649,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H21" s="52">
-        <v>15</v>
-      </c>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="54">
@@ -6697,16 +6669,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H22" s="52">
-        <v>16</v>
-      </c>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="54">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="7">
         <v>15863121</v>
@@ -6719,9 +6689,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H23" s="52">
-        <v>17</v>
-      </c>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="54">
@@ -6741,16 +6709,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H24" s="52">
-        <v>18</v>
-      </c>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="54">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="7">
         <v>11848253</v>
@@ -6763,9 +6729,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H25" s="52">
-        <v>19</v>
-      </c>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="54">
@@ -6785,9 +6749,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H26" s="52">
-        <v>20</v>
-      </c>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="54">
@@ -6807,9 +6769,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H27" s="52">
-        <v>21</v>
-      </c>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="54">
@@ -6829,9 +6789,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H28" s="52">
-        <v>22</v>
-      </c>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="54">
@@ -6851,9 +6809,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H29" s="52">
-        <v>23</v>
-      </c>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="54">
@@ -6873,9 +6829,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H30" s="52">
-        <v>24</v>
-      </c>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="54">
@@ -6895,9 +6849,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H31" s="52">
-        <v>25</v>
-      </c>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="54">
@@ -6917,9 +6869,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H32" s="52">
-        <v>26</v>
-      </c>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="54">
@@ -6939,9 +6889,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H33" s="52">
-        <v>28</v>
-      </c>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="54">
@@ -6961,9 +6909,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H34" s="52">
-        <v>29</v>
-      </c>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="54">
@@ -6983,9 +6929,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H35" s="52">
-        <v>30</v>
-      </c>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="54">
@@ -7005,9 +6949,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H36" s="52">
-        <v>31</v>
-      </c>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="54">
@@ -7027,9 +6969,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H37" s="52">
-        <v>32</v>
-      </c>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="54">
@@ -7049,9 +6989,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H38" s="52">
-        <v>33</v>
-      </c>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="54">
@@ -7071,9 +7009,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H39" s="52">
-        <v>34</v>
-      </c>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="54">
@@ -7093,9 +7029,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H40" s="52">
-        <v>35</v>
-      </c>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="54">
@@ -7115,9 +7049,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H41" s="52">
-        <v>36</v>
-      </c>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="54">
@@ -7137,9 +7069,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H42" s="52">
-        <v>37</v>
-      </c>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="54">
@@ -7159,9 +7089,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H43" s="52">
-        <v>38</v>
-      </c>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="54">
@@ -7181,9 +7109,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H44" s="52">
-        <v>39</v>
-      </c>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="54">
@@ -7203,9 +7129,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H45" s="52">
-        <v>40</v>
-      </c>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="54">
@@ -7225,9 +7149,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H46" s="52">
-        <v>41</v>
-      </c>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="54">
@@ -7247,9 +7169,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H47" s="52">
-        <v>42</v>
-      </c>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="54">
@@ -7269,9 +7189,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H48" s="52">
-        <v>43</v>
-      </c>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="54">
@@ -7291,9 +7209,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H49" s="52">
-        <v>44</v>
-      </c>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="54">
@@ -7313,9 +7229,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H50" s="52">
-        <v>45</v>
-      </c>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="54">
@@ -7335,9 +7249,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H51" s="52">
-        <v>46</v>
-      </c>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="54">
@@ -7357,9 +7269,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H52" s="52">
-        <v>47</v>
-      </c>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="54">
@@ -7379,16 +7289,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H53" s="52">
-        <v>48</v>
-      </c>
+      <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" s="7">
         <v>20561405</v>
@@ -7401,9 +7309,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H54" s="52">
-        <v>49</v>
-      </c>
+      <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="54">
@@ -7423,16 +7329,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H55" s="52">
-        <v>50</v>
-      </c>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="54">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="7">
         <v>4416210</v>
@@ -7445,9 +7349,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H56" s="52">
-        <v>51</v>
-      </c>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="54">
@@ -7467,9 +7369,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H57" s="52">
-        <v>52</v>
-      </c>
+      <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="54">
@@ -7489,9 +7389,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H58" s="52">
-        <v>53</v>
-      </c>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="54">
@@ -7511,9 +7409,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H59" s="52">
-        <v>54</v>
-      </c>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="54">
@@ -7533,9 +7429,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H60" s="52">
-        <v>55</v>
-      </c>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="54">
@@ -7555,9 +7449,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H61" s="52">
-        <v>56</v>
-      </c>
+      <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="54">
@@ -7577,9 +7469,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H62" s="52">
-        <v>57</v>
-      </c>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="54" t="s">
@@ -7593,27 +7483,19 @@
         <f ca="1">SUM(D4:D66)</f>
         <v>642470139</v>
       </c>
-      <c r="H63" s="52">
-        <v>58</v>
-      </c>
+      <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8">
       <c r="D64" s="7"/>
-      <c r="H64" s="52">
-        <v>59</v>
-      </c>
+      <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8">
       <c r="D65" s="7"/>
-      <c r="H65" s="52">
-        <v>60</v>
-      </c>
+      <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8">
       <c r="D66" s="7"/>
-      <c r="H66" s="53" t="s">
-        <v>255</v>
-      </c>
+      <c r="H66" s="53"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="55"/>
@@ -7631,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EFB6D8-5D8F-4F49-B008-8243EAB0FE1D}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7651,7 +7533,7 @@
         <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G3" s="62"/>
     </row>
@@ -7673,9 +7555,7 @@
         <f>IF(C4=D4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="69" t="s">
-        <v>249</v>
-      </c>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="54">
@@ -7695,9 +7575,7 @@
         <f t="shared" ref="E5:E67" si="1">IF(C5=D5,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>248</v>
-      </c>
+      <c r="G5" s="62"/>
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:9">
@@ -7739,9 +7617,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7" s="53">
-        <v>40</v>
-      </c>
+      <c r="G7" s="53"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
     </row>
@@ -7750,7 +7626,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="7">
         <v>3801322.46</v>
@@ -7763,9 +7639,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8" s="53">
-        <v>41</v>
-      </c>
+      <c r="G8" s="53"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
     </row>
@@ -7787,9 +7661,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="53">
-        <v>42</v>
-      </c>
+      <c r="G9" s="53"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
     </row>
@@ -7811,9 +7683,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G10" s="53">
-        <v>43</v>
-      </c>
+      <c r="G10" s="53"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
     </row>
@@ -7835,9 +7705,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G11" s="53">
-        <v>44</v>
-      </c>
+      <c r="G11" s="53"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
     </row>
@@ -7859,9 +7727,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="53">
-        <v>45</v>
-      </c>
+      <c r="G12" s="53"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
     </row>
@@ -7870,7 +7736,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="7">
         <v>28180.77</v>
@@ -7883,9 +7749,7 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="53">
-        <v>46</v>
-      </c>
+      <c r="G13" s="53"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
     </row>
@@ -7907,9 +7771,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="53">
-        <v>47</v>
-      </c>
+      <c r="G14" s="53"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
     </row>
@@ -7931,9 +7793,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G15" s="53">
-        <v>48</v>
-      </c>
+      <c r="G15" s="53"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
     </row>
@@ -7955,9 +7815,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G16" s="53">
-        <v>49</v>
-      </c>
+      <c r="G16" s="53"/>
       <c r="H16" s="55"/>
       <c r="I16" s="55"/>
     </row>
@@ -7979,9 +7837,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="53">
-        <v>50</v>
-      </c>
+      <c r="G17" s="53"/>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
     </row>
@@ -8003,9 +7859,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G18" s="53">
-        <v>51</v>
-      </c>
+      <c r="G18" s="53"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
     </row>
@@ -8027,9 +7881,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G19" s="53">
-        <v>52</v>
-      </c>
+      <c r="G19" s="53"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
     </row>
@@ -8051,9 +7903,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G20" s="53">
-        <v>53</v>
-      </c>
+      <c r="G20" s="53"/>
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
     </row>
@@ -8075,9 +7925,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21" s="53">
-        <v>54</v>
-      </c>
+      <c r="G21" s="53"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
     </row>
@@ -8099,9 +7947,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G22" s="53">
-        <v>55</v>
-      </c>
+      <c r="G22" s="53"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
     </row>
@@ -8123,9 +7969,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="53">
-        <v>56</v>
-      </c>
+      <c r="G23" s="53"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
     </row>
@@ -8147,9 +7991,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G24" s="53">
-        <v>57</v>
-      </c>
+      <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
     </row>
@@ -8171,9 +8013,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G25" s="53">
-        <v>58</v>
-      </c>
+      <c r="G25" s="53"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
     </row>
@@ -8182,7 +8022,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="7">
         <v>7062979.6799999997</v>
@@ -8195,9 +8035,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G26" s="53">
-        <v>59</v>
-      </c>
+      <c r="G26" s="53"/>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
     </row>
@@ -8219,9 +8057,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G27" s="53">
-        <v>60</v>
-      </c>
+      <c r="G27" s="53"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
     </row>
@@ -8243,9 +8079,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G28" s="53">
-        <v>61</v>
-      </c>
+      <c r="G28" s="53"/>
       <c r="H28" s="55"/>
       <c r="I28" s="55"/>
     </row>
@@ -8267,9 +8101,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G29" s="53">
-        <v>62</v>
-      </c>
+      <c r="G29" s="53"/>
       <c r="H29" s="55"/>
       <c r="I29" s="55"/>
     </row>
@@ -8291,9 +8123,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G30" s="53">
-        <v>63</v>
-      </c>
+      <c r="G30" s="53"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
     </row>
@@ -8315,9 +8145,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31" s="53">
-        <v>64</v>
-      </c>
+      <c r="G31" s="53"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
     </row>
@@ -8339,9 +8167,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G32" s="53">
-        <v>65</v>
-      </c>
+      <c r="G32" s="53"/>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
     </row>
@@ -8363,9 +8189,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G33" s="53">
-        <v>66</v>
-      </c>
+      <c r="G33" s="53"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
     </row>
@@ -8387,9 +8211,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34" s="53">
-        <v>67</v>
-      </c>
+      <c r="G34" s="53"/>
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
     </row>
@@ -8411,9 +8233,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G35" s="53">
-        <v>68</v>
-      </c>
+      <c r="G35" s="53"/>
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
     </row>
@@ -8422,7 +8242,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="7">
         <v>22050396.780000001</v>
@@ -8435,9 +8255,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G36" s="53">
-        <v>69</v>
-      </c>
+      <c r="G36" s="53"/>
       <c r="H36" s="55"/>
       <c r="I36" s="55"/>
     </row>
@@ -8459,9 +8277,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G37" s="53">
-        <v>70</v>
-      </c>
+      <c r="G37" s="53"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
     </row>
@@ -8483,9 +8299,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G38" s="53">
-        <v>71</v>
-      </c>
+      <c r="G38" s="53"/>
       <c r="H38" s="55"/>
       <c r="I38" s="55"/>
     </row>
@@ -8494,7 +8308,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="7">
         <v>5041663.1500000004</v>
@@ -8507,9 +8321,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G39" s="53">
-        <v>72</v>
-      </c>
+      <c r="G39" s="53"/>
       <c r="H39" s="55"/>
       <c r="I39" s="55"/>
     </row>
@@ -8531,9 +8343,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G40" s="53">
-        <v>73</v>
-      </c>
+      <c r="G40" s="53"/>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
     </row>
@@ -8555,9 +8365,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G41" s="53">
-        <v>74</v>
-      </c>
+      <c r="G41" s="53"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
     </row>
@@ -8579,9 +8387,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G42" s="53">
-        <v>75</v>
-      </c>
+      <c r="G42" s="53"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
     </row>
@@ -8603,9 +8409,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G43" s="53">
-        <v>76</v>
-      </c>
+      <c r="G43" s="53"/>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
     </row>
@@ -8627,9 +8431,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G44" s="53">
-        <v>77</v>
-      </c>
+      <c r="G44" s="53"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
     </row>
@@ -8651,9 +8453,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G45" s="53">
-        <v>78</v>
-      </c>
+      <c r="G45" s="53"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
     </row>
@@ -8675,9 +8475,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G46" s="53">
-        <v>79</v>
-      </c>
+      <c r="G46" s="53"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
     </row>
@@ -8699,9 +8497,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G47" s="53">
-        <v>80</v>
-      </c>
+      <c r="G47" s="53"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
     </row>
@@ -8723,9 +8519,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G48" s="53">
-        <v>81</v>
-      </c>
+      <c r="G48" s="53"/>
       <c r="H48" s="55"/>
       <c r="I48" s="55"/>
     </row>
@@ -8734,7 +8528,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C49" s="7">
         <v>7280188.5899999999</v>
@@ -8747,9 +8541,7 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="53">
-        <v>82</v>
-      </c>
+      <c r="G49" s="53"/>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
     </row>
@@ -8771,9 +8563,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G50" s="53">
-        <v>83</v>
-      </c>
+      <c r="G50" s="53"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
     </row>
@@ -8795,9 +8585,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G51" s="53">
-        <v>84</v>
-      </c>
+      <c r="G51" s="53"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
     </row>
@@ -8819,9 +8607,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G52" s="53">
-        <v>85</v>
-      </c>
+      <c r="G52" s="53"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
     </row>
@@ -8843,9 +8629,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G53" s="53">
-        <v>86</v>
-      </c>
+      <c r="G53" s="53"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
     </row>
@@ -8867,9 +8651,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G54" s="53">
-        <v>87</v>
-      </c>
+      <c r="G54" s="53"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
     </row>
@@ -8891,9 +8673,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G55" s="53">
-        <v>88</v>
-      </c>
+      <c r="G55" s="53"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
     </row>
@@ -8915,9 +8695,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G56" s="53">
-        <v>89</v>
-      </c>
+      <c r="G56" s="53"/>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
     </row>
@@ -8939,9 +8717,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G57" s="53">
-        <v>90</v>
-      </c>
+      <c r="G57" s="53"/>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
     </row>
@@ -8963,9 +8739,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G58" s="53">
-        <v>91</v>
-      </c>
+      <c r="G58" s="53"/>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
     </row>
@@ -8987,9 +8761,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G59" s="53">
-        <v>92</v>
-      </c>
+      <c r="G59" s="53"/>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
     </row>
@@ -9011,9 +8783,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G60" s="53">
-        <v>93</v>
-      </c>
+      <c r="G60" s="53"/>
       <c r="H60" s="55"/>
       <c r="I60" s="55"/>
     </row>
@@ -9035,9 +8805,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G61" s="53">
-        <v>94</v>
-      </c>
+      <c r="G61" s="53"/>
       <c r="H61" s="55"/>
       <c r="I61" s="55"/>
     </row>
@@ -9059,9 +8827,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G62" s="53">
-        <v>95</v>
-      </c>
+      <c r="G62" s="53"/>
       <c r="H62" s="55"/>
       <c r="I62" s="55"/>
     </row>
@@ -9083,9 +8849,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G63" s="53">
-        <v>96</v>
-      </c>
+      <c r="G63" s="53"/>
       <c r="H63" s="55"/>
       <c r="I63" s="55"/>
     </row>
@@ -9107,9 +8871,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G64" s="53">
-        <v>97</v>
-      </c>
+      <c r="G64" s="53"/>
       <c r="H64" s="55"/>
       <c r="I64" s="55"/>
     </row>
@@ -9131,9 +8893,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G65" s="53">
-        <v>98</v>
-      </c>
+      <c r="G65" s="53"/>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
     </row>
@@ -9155,9 +8915,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G66" s="53">
-        <v>99</v>
-      </c>
+      <c r="G66" s="53"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
     </row>
@@ -9179,9 +8937,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G67" s="53">
-        <v>100</v>
-      </c>
+      <c r="G67" s="53"/>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
     </row>
@@ -9203,9 +8959,7 @@
         <f t="shared" ref="E68:E131" si="4">IF(C68=D68,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G68" s="53">
-        <v>101</v>
-      </c>
+      <c r="G68" s="53"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
     </row>
@@ -9227,9 +8981,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G69" s="53">
-        <v>102</v>
-      </c>
+      <c r="G69" s="53"/>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
     </row>
@@ -9251,9 +9003,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G70" s="53">
-        <v>103</v>
-      </c>
+      <c r="G70" s="53"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
     </row>
@@ -9262,7 +9012,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C71" s="7">
         <v>28180.77</v>
@@ -9275,9 +9025,7 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="53">
-        <v>104</v>
-      </c>
+      <c r="G71" s="53"/>
       <c r="H71" s="55"/>
       <c r="I71" s="55"/>
     </row>
@@ -9299,9 +9047,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G72" s="53">
-        <v>105</v>
-      </c>
+      <c r="G72" s="53"/>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
     </row>
@@ -9310,7 +9056,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C73" s="7">
         <v>12716258.48</v>
@@ -9323,9 +9069,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G73" s="53">
-        <v>106</v>
-      </c>
+      <c r="G73" s="53"/>
       <c r="H73" s="55"/>
       <c r="I73" s="55"/>
     </row>
@@ -9347,9 +9091,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G74" s="53">
-        <v>107</v>
-      </c>
+      <c r="G74" s="53"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
     </row>
@@ -9371,9 +9113,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G75" s="53">
-        <v>108</v>
-      </c>
+      <c r="G75" s="53"/>
       <c r="H75" s="55"/>
       <c r="I75" s="55"/>
     </row>
@@ -9395,16 +9135,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G76" s="53">
-        <v>109</v>
-      </c>
+      <c r="G76" s="53"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="54">
         <v>74</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C77" s="7">
         <v>5324947.97</v>
@@ -9417,9 +9155,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G77" s="53">
-        <v>110</v>
-      </c>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="54">
@@ -9439,9 +9175,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G78" s="53">
-        <v>111</v>
-      </c>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="54">
@@ -9461,9 +9195,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G79" s="53">
-        <v>112</v>
-      </c>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="54">
@@ -9483,9 +9215,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G80" s="53">
-        <v>113</v>
-      </c>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="54">
@@ -9505,9 +9235,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G81" s="53">
-        <v>114</v>
-      </c>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="54">
@@ -9527,9 +9255,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G82" s="53">
-        <v>115</v>
-      </c>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="54">
@@ -9549,9 +9275,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G83" s="53">
-        <v>116</v>
-      </c>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="54">
@@ -9571,9 +9295,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G84" s="53">
-        <v>117</v>
-      </c>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="54">
@@ -9593,9 +9315,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G85" s="53">
-        <v>118</v>
-      </c>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="54">
@@ -9615,16 +9335,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G86" s="53">
-        <v>119</v>
-      </c>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="54">
         <v>84</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C87" s="7">
         <v>4221259</v>
@@ -9637,9 +9355,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G87" s="53">
-        <v>120</v>
-      </c>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="54">
@@ -9659,9 +9375,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G88" s="53">
-        <v>121</v>
-      </c>
+      <c r="G88" s="53"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="54">
@@ -9681,9 +9395,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G89" s="53">
-        <v>122</v>
-      </c>
+      <c r="G89" s="53"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="54">
@@ -9703,9 +9415,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G90" s="53">
-        <v>123</v>
-      </c>
+      <c r="G90" s="53"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="54">
@@ -9725,9 +9435,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G91" s="53">
-        <v>124</v>
-      </c>
+      <c r="G91" s="53"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="54">
@@ -9747,9 +9455,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G92" s="53">
-        <v>125</v>
-      </c>
+      <c r="G92" s="53"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="54">
@@ -9769,9 +9475,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G93" s="53">
-        <v>126</v>
-      </c>
+      <c r="G93" s="53"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="54">
@@ -9791,9 +9495,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G94" s="53">
-        <v>127</v>
-      </c>
+      <c r="G94" s="53"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="54">
@@ -9813,9 +9515,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G95" s="53">
-        <v>128</v>
-      </c>
+      <c r="G95" s="53"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="54">
@@ -9835,9 +9535,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G96" s="53">
-        <v>129</v>
-      </c>
+      <c r="G96" s="53"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="54">
@@ -9857,9 +9555,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G97" s="53">
-        <v>130</v>
-      </c>
+      <c r="G97" s="53"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="54">
@@ -9879,9 +9575,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G98" s="53">
-        <v>131</v>
-      </c>
+      <c r="G98" s="53"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="54">
@@ -9901,9 +9595,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G99" s="53">
-        <v>132</v>
-      </c>
+      <c r="G99" s="53"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="54">
@@ -9923,16 +9615,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G100" s="53">
-        <v>133</v>
-      </c>
+      <c r="G100" s="53"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="54">
         <v>98</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C101" s="7">
         <v>86573.75</v>
@@ -9945,16 +9635,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G101" s="53">
-        <v>134</v>
-      </c>
+      <c r="G101" s="53"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="54">
         <v>99</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" s="7">
         <v>28180.77</v>
@@ -9967,9 +9655,7 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="53">
-        <v>135</v>
-      </c>
+      <c r="G102" s="53"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="54">
@@ -9989,9 +9675,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G103" s="53">
-        <v>136</v>
-      </c>
+      <c r="G103" s="53"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="54">
@@ -10011,9 +9695,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G104" s="53">
-        <v>137</v>
-      </c>
+      <c r="G104" s="53"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="54">
@@ -10033,9 +9715,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G105" s="53">
-        <v>138</v>
-      </c>
+      <c r="G105" s="53"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="54">
@@ -10055,9 +9735,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G106" s="53">
-        <v>139</v>
-      </c>
+      <c r="G106" s="53"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="54">
@@ -10077,9 +9755,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G107" s="53">
-        <v>140</v>
-      </c>
+      <c r="G107" s="53"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="54">
@@ -10099,9 +9775,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G108" s="53">
-        <v>141</v>
-      </c>
+      <c r="G108" s="53"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="54">
@@ -10121,9 +9795,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G109" s="53">
-        <v>142</v>
-      </c>
+      <c r="G109" s="53"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="54">
@@ -10143,9 +9815,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G110" s="53">
-        <v>143</v>
-      </c>
+      <c r="G110" s="53"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="54">
@@ -10165,16 +9835,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G111" s="53">
-        <v>144</v>
-      </c>
+      <c r="G111" s="53"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="54">
         <v>109</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C112" s="7">
         <v>14097207.43</v>
@@ -10187,9 +9855,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G112" s="53">
-        <v>145</v>
-      </c>
+      <c r="G112" s="53"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="54">
@@ -10209,9 +9875,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G113" s="53">
-        <v>146</v>
-      </c>
+      <c r="G113" s="53"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="54">
@@ -10231,9 +9895,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G114" s="53">
-        <v>147</v>
-      </c>
+      <c r="G114" s="53"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="54">
@@ -10278,7 +9940,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" s="7">
         <v>28823.75</v>
@@ -10392,7 +10054,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C123" s="7">
         <v>5658108.8399999999</v>
@@ -10506,7 +10168,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C129" s="7">
         <v>33054830.420000002</v>
@@ -10544,7 +10206,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C131" s="7">
         <v>7928034</v>
@@ -10791,7 +10453,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C144" s="7">
         <v>1611296.25</v>
@@ -10906,7 +10568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649995B-1F94-9948-A06A-DB81970799DB}">
   <dimension ref="A1:W248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O245" sqref="O245"/>
     </sheetView>
   </sheetViews>
@@ -10935,30 +10597,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
       <c r="O1" s="56"/>
       <c r="P1" s="56"/>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="43" t="s">
@@ -10983,10 +10645,10 @@
         <v>138</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>139</v>
@@ -11004,7 +10666,7 @@
         <v>142</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P2" s="63"/>
       <c r="Q2" s="44" t="s">
@@ -13308,7 +12970,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="47">
         <v>1</v>
@@ -13448,7 +13110,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="47">
         <v>3.1</v>
@@ -15107,7 +14769,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B62" s="47">
         <v>4.8499999999999996</v>
@@ -15640,7 +15302,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B70" s="47">
         <v>1.5</v>
@@ -15905,7 +15567,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B74" s="47">
         <v>1.78</v>
@@ -16584,7 +16246,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B84" s="47">
         <v>1</v>
@@ -18399,7 +18061,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B111" s="47">
         <v>1.5</v>
@@ -19437,7 +19099,7 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B127" s="47">
         <v>1</v>
@@ -19501,7 +19163,7 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" s="47">
         <v>1.5</v>
@@ -20177,7 +19839,7 @@
     </row>
     <row r="138" spans="1:21">
       <c r="A138" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B138" s="47">
         <v>1.79</v>
@@ -20451,7 +20113,7 @@
     </row>
     <row r="142" spans="1:21">
       <c r="A142" s="45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B142" s="47">
         <v>3.76</v>
